--- a/biology/Zoologie/Favites_paraflexuosus/Favites_paraflexuosus.xlsx
+++ b/biology/Zoologie/Favites_paraflexuosus/Favites_paraflexuosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Favites paraflexuosus est une espèce de coraux appartenant à la famille des Merulinidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Favites paraflexuosus est une espèce de coraux appartenant à la famille des Merulinidae.
 Elle est aussi connue en anglais sous le nom de larger star coral (en français : grande étoile de corail).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans la mer rouge, le golfe d'Aden, l'Afrique de l'Est, Madagascar (pas dans la partie sud-ouest), aux Seychelles, à l'île Maurice, aux Maldives, dans l'archipel des Chagos, à la pointe sud-ouest de l'Inde,  en Asie du Sud-Ouest, au Viêt Nam, au sud du Japon, au nord-ouest de l'Australie, en Papouasie-Nouvelle-Guinée, dans les îles Salomon et aux îles Fiji[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans la mer rouge, le golfe d'Aden, l'Afrique de l'Est, Madagascar (pas dans la partie sud-ouest), aux Seychelles, à l'île Maurice, aux Maldives, dans l'archipel des Chagos, à la pointe sud-ouest de l'Inde,  en Asie du Sud-Ouest, au Viêt Nam, au sud du Japon, au nord-ouest de l'Australie, en Papouasie-Nouvelle-Guinée, dans les îles Salomon et aux îles Fiji.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans des récifs peu profonds. Elle se trouve dans la zone de pré-pente et dans les lagunes jusqu'à une profondeur maximale de 20 mètres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans des récifs peu profonds. Elle se trouve dans la zone de pré-pente et dans les lagunes jusqu'à une profondeur maximale de 20 mètres.
 </t>
         </is>
       </c>
